--- a/Propiedad de las tabla Proyecto Data Analytics.xlsx
+++ b/Propiedad de las tabla Proyecto Data Analytics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Curso SQL DATA ANALYTICS\Proyecto Data Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AC5F1FB-0FB7-4B72-A603-2CF983A4CE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E622B1A-66D7-4192-B19F-90544E719823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{36D6F91E-2800-487B-ACDC-FE03E6EA6211}"/>
   </bookViews>
@@ -366,10 +366,6 @@
   </cellStyleXfs>
   <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -402,6 +398,51 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -420,51 +461,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,8 +781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FDE6DE2-9ABB-4F91-954B-7468694F8FBD}">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:G33"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,685 +791,681 @@
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
     <col min="3" max="3" width="56.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="31" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.85546875" style="23" customWidth="1"/>
     <col min="8" max="8" width="59.140625" customWidth="1"/>
     <col min="9" max="21" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="12" t="s">
+      <c r="A1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2">
         <v>255</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5">
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
         <v>255</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="19"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="8" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
         <v>255</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="32"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>255</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="19"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="32"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="19"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="32"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="8" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="19"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="32"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="14">
+      <c r="E10" s="3"/>
+      <c r="F10" s="12">
         <v>38.200000000000003</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="19"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="32"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="8" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="23">
+      <c r="E11" s="2"/>
+      <c r="F11" s="15">
         <v>38.200000000000003</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="32"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="19"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="32"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="8" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="23">
+      <c r="E13" s="2"/>
+      <c r="F13" s="15">
         <v>38.200000000000003</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="32"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="24">
+      <c r="E14" s="8"/>
+      <c r="F14" s="16">
         <v>512</v>
       </c>
-      <c r="G14" s="30"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="32"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="8" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="19"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="32"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="19"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="32"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="8" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="19"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11" t="s">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="5"/>
-      <c r="F18" s="14">
+      <c r="E18" s="3"/>
+      <c r="F18" s="12">
         <v>38.200000000000003</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="33"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4">
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>512</v>
       </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="16"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="29"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="D23" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
         <v>512</v>
       </c>
-      <c r="G23" s="33"/>
-      <c r="H23" s="16"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="29"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="8" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="23">
+      <c r="E25" s="3"/>
+      <c r="F25" s="12">
         <v>38.200000000000003</v>
       </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="G25" s="25"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="14">
+      <c r="E26" s="2"/>
+      <c r="F26" s="15">
         <v>38.200000000000003</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="8" t="s">
+      <c r="G26" s="24"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="23">
+      <c r="E27" s="3"/>
+      <c r="F27" s="12">
         <v>38.200000000000003</v>
       </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="G27" s="25"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="14">
+      <c r="E28" s="2"/>
+      <c r="F28" s="15">
         <v>38.200000000000003</v>
       </c>
-      <c r="G27" s="33"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="8" t="s">
+      <c r="G28" s="24"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="23">
+      <c r="E30" s="2"/>
+      <c r="F30" s="15">
         <v>38.200000000000003</v>
       </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="16"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="G30" s="24"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="14">
+      <c r="E31" s="3"/>
+      <c r="F31" s="12">
         <v>38.200000000000003</v>
       </c>
-      <c r="G29" s="33"/>
-      <c r="H29" s="16"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="8" t="s">
+      <c r="G31" s="25"/>
+      <c r="H31" s="29"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="23">
+      <c r="E32" s="13"/>
+      <c r="F32" s="27">
         <v>38.200000000000003</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="16"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="5"/>
-      <c r="F31" s="14">
+      <c r="G32" s="26"/>
+      <c r="H32" s="29"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="12">
         <v>38.200000000000003</v>
       </c>
-      <c r="G31" s="33"/>
-      <c r="H31" s="16"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="35">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="16"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="5"/>
-      <c r="F33" s="14">
-        <v>38.200000000000003</v>
-      </c>
-      <c r="G33" s="33"/>
-      <c r="H33" s="17"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="30"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="28" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>255</v>
       </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="16"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="29"/>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6" t="s">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="3">
         <v>255</v>
       </c>
-      <c r="G37" s="33"/>
-      <c r="H37" s="16"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="29"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="2">
         <v>255</v>
       </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="16"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="29"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="13" t="s">
+      <c r="A39" s="3"/>
+      <c r="B39" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="3">
         <v>255</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="16"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="29"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="16"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="29"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6" t="s">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="5"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="16"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="29"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="8" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="16"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="29"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="7" t="s">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="17"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
